--- a/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,84</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,78</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 23,63</t>
+          <t>-9,25; 15,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 16,55</t>
+          <t>-10,29; 21,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 32,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 29,24</t>
+          <t>-7,82; 11,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 24,88</t>
+          <t>6,62; 30,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 21,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 10,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 23,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,73%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 71,99</t>
+          <t>-20,99; 55,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 50,48</t>
+          <t>-22,81; 68,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,23; 112,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 98,18</t>
+          <t>-17,93; 37,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,49; 74,77</t>
+          <t>14,54; 96,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 65,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 33,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 69,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,73</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 20,26</t>
+          <t>-6,11; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,05</t>
+          <t>2,46; 16,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 25,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 15,2</t>
+          <t>-5,42; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,16</t>
+          <t>6,0; 19,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 3,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 15,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>101,51%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>118,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>110,01%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,72; 157,07</t>
+          <t>-33,82; 36,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 71,14</t>
+          <t>12,86; 134,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,69; 169,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 101,71</t>
+          <t>-25,22; 36,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,22; 145,39</t>
+          <t>26,14; 125,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 67,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,24; 22,16</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 103,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,33</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,17</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,22</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,25; 32,23</t>
+          <t>-2,92; 7,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,26</t>
+          <t>8,28; 21,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 31,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 21,02</t>
+          <t>-3,65; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,45; 30,56</t>
+          <t>4,86; 18,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 6,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,4; 17,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>225,66%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>121,44%</t>
+          <t>117,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>166,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>100,24%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>192,46%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>110,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>137,78; 345,25</t>
+          <t>-18,57; 77,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,2; 205,52</t>
+          <t>49,79; 226,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>110,67; 251,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,71; 164,32</t>
+          <t>-18,34; 65,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>142,56; 258,33</t>
+          <t>23,36; 140,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,77; 162,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 50,63</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49,63; 143,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,28</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,02</t>
+          <t>-6,99; 5,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,84</t>
+          <t>9,94; 23,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,95; 18,68</t>
+          <t>-1,11; 10,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,89</t>
+          <t>8,37; 22,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 14,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 5,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 20,7</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102,39%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>112,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>72,25%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>108,05%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81,59%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>73,26; 139,77</t>
+          <t>-33,4; 35,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,96; 69,72</t>
+          <t>47,2; 148,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,85; 146,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,88; 96,61</t>
+          <t>-5,1; 59,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>87,48; 129,84</t>
+          <t>37,32; 128,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,32; 78,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 31,31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54,36; 119,6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12,74</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15,02</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 4,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 17,0</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 6,23</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 18,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 3,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 16,89</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>71,59%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70,52%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 24,64</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45,21; 100,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 32,49</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>49,12; 97,81</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 21,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>53,61; 91,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
